--- a/non.xlsx
+++ b/non.xlsx
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,6 +1155,522 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B9">
+        <v>39386850</v>
+      </c>
+      <c r="C9">
+        <v>17152420</v>
+      </c>
+      <c r="D9">
+        <v>22234430</v>
+      </c>
+      <c r="E9">
+        <v>555000</v>
+      </c>
+      <c r="F9">
+        <v>600000</v>
+      </c>
+      <c r="G9">
+        <v>224800</v>
+      </c>
+      <c r="H9">
+        <v>2107000</v>
+      </c>
+      <c r="I9">
+        <v>1123800</v>
+      </c>
+      <c r="J9">
+        <v>5052100</v>
+      </c>
+      <c r="K9">
+        <v>17182330</v>
+      </c>
+      <c r="L9">
+        <v>17182330</v>
+      </c>
+      <c r="M9">
+        <v>17182330</v>
+      </c>
+      <c r="N9">
+        <v>17182330</v>
+      </c>
+      <c r="O9">
+        <v>-1068675</v>
+      </c>
+      <c r="P9">
+        <v>-1068675</v>
+      </c>
+      <c r="Q9">
+        <v>16113655</v>
+      </c>
+      <c r="R9">
+        <v>19050450</v>
+      </c>
+      <c r="S9">
+        <v>19050450</v>
+      </c>
+      <c r="T9">
+        <v>441500</v>
+      </c>
+      <c r="U9">
+        <v>12786850</v>
+      </c>
+      <c r="V9">
+        <v>3574570</v>
+      </c>
+      <c r="W9">
+        <v>791000</v>
+      </c>
+      <c r="X9">
+        <v>0.5645140446621144</v>
+      </c>
+      <c r="Y9">
+        <v>0.09</v>
+      </c>
+      <c r="Z9">
+        <v>0.32</v>
+      </c>
+      <c r="AA9">
+        <v>0.02</v>
+      </c>
+      <c r="AB9">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B10">
+        <v>35775600</v>
+      </c>
+      <c r="C10">
+        <v>16431266</v>
+      </c>
+      <c r="D10">
+        <v>19344334</v>
+      </c>
+      <c r="E10">
+        <v>330000</v>
+      </c>
+      <c r="F10">
+        <v>600500</v>
+      </c>
+      <c r="G10">
+        <v>34550</v>
+      </c>
+      <c r="H10">
+        <v>2569000</v>
+      </c>
+      <c r="I10">
+        <v>957440</v>
+      </c>
+      <c r="J10">
+        <v>5017840</v>
+      </c>
+      <c r="K10">
+        <v>14326494</v>
+      </c>
+      <c r="L10">
+        <v>14326494</v>
+      </c>
+      <c r="M10">
+        <v>14326494</v>
+      </c>
+      <c r="N10">
+        <v>14326494</v>
+      </c>
+      <c r="O10">
+        <v>-976000</v>
+      </c>
+      <c r="P10">
+        <v>-976000</v>
+      </c>
+      <c r="Q10">
+        <v>13350494</v>
+      </c>
+      <c r="R10">
+        <v>19856106</v>
+      </c>
+      <c r="S10">
+        <v>19856106</v>
+      </c>
+      <c r="T10">
+        <v>526350</v>
+      </c>
+      <c r="U10">
+        <v>11558450</v>
+      </c>
+      <c r="V10">
+        <v>4082816</v>
+      </c>
+      <c r="W10">
+        <v>790000</v>
+      </c>
+      <c r="X10">
+        <v>0.5407130558257583</v>
+      </c>
+      <c r="Y10">
+        <v>0.11</v>
+      </c>
+      <c r="Z10">
+        <v>0.32</v>
+      </c>
+      <c r="AA10">
+        <v>0.02</v>
+      </c>
+      <c r="AB10">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B11">
+        <v>36407900</v>
+      </c>
+      <c r="C11">
+        <v>18319840</v>
+      </c>
+      <c r="D11">
+        <v>18088060</v>
+      </c>
+      <c r="E11">
+        <v>445000</v>
+      </c>
+      <c r="F11">
+        <v>750000</v>
+      </c>
+      <c r="G11">
+        <v>244200</v>
+      </c>
+      <c r="H11">
+        <v>2230500</v>
+      </c>
+      <c r="I11">
+        <v>794050</v>
+      </c>
+      <c r="J11">
+        <v>4873250</v>
+      </c>
+      <c r="K11">
+        <v>13214810</v>
+      </c>
+      <c r="L11">
+        <v>13214810</v>
+      </c>
+      <c r="M11">
+        <v>13214810</v>
+      </c>
+      <c r="N11">
+        <v>13214810</v>
+      </c>
+      <c r="O11">
+        <v>-1392495</v>
+      </c>
+      <c r="P11">
+        <v>-1392495</v>
+      </c>
+      <c r="Q11">
+        <v>11822315</v>
+      </c>
+      <c r="R11">
+        <v>22355085</v>
+      </c>
+      <c r="S11">
+        <v>22355085</v>
+      </c>
+      <c r="T11">
+        <v>409500</v>
+      </c>
+      <c r="U11">
+        <v>13837500</v>
+      </c>
+      <c r="V11">
+        <v>3707340</v>
+      </c>
+      <c r="W11">
+        <v>775000</v>
+      </c>
+      <c r="X11">
+        <v>0.4968168996289267</v>
+      </c>
+      <c r="Y11">
+        <v>0.1</v>
+      </c>
+      <c r="Z11">
+        <v>0.38</v>
+      </c>
+      <c r="AA11">
+        <v>0.02</v>
+      </c>
+      <c r="AB11">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B12">
+        <v>28011500</v>
+      </c>
+      <c r="C12">
+        <v>14381460</v>
+      </c>
+      <c r="D12">
+        <v>13630040</v>
+      </c>
+      <c r="E12">
+        <v>550000</v>
+      </c>
+      <c r="F12">
+        <v>750000</v>
+      </c>
+      <c r="G12">
+        <v>35700</v>
+      </c>
+      <c r="H12">
+        <v>2113000</v>
+      </c>
+      <c r="I12">
+        <v>1216700</v>
+      </c>
+      <c r="J12">
+        <v>5261350</v>
+      </c>
+      <c r="K12">
+        <v>8368690</v>
+      </c>
+      <c r="L12">
+        <v>8368690</v>
+      </c>
+      <c r="M12">
+        <v>8368690</v>
+      </c>
+      <c r="N12">
+        <v>8368690</v>
+      </c>
+      <c r="O12">
+        <v>-2380500</v>
+      </c>
+      <c r="P12">
+        <v>-2380500</v>
+      </c>
+      <c r="Q12">
+        <v>5988190</v>
+      </c>
+      <c r="R12">
+        <v>19910310</v>
+      </c>
+      <c r="S12">
+        <v>19910310</v>
+      </c>
+      <c r="T12">
+        <v>595950</v>
+      </c>
+      <c r="U12">
+        <v>10338450</v>
+      </c>
+      <c r="V12">
+        <v>3345510</v>
+      </c>
+      <c r="W12">
+        <v>697500</v>
+      </c>
+      <c r="X12">
+        <v>0.486587294504043</v>
+      </c>
+      <c r="Y12">
+        <v>0.12</v>
+      </c>
+      <c r="Z12">
+        <v>0.37</v>
+      </c>
+      <c r="AA12">
+        <v>0.02</v>
+      </c>
+      <c r="AB12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B13">
+        <v>27120500</v>
+      </c>
+      <c r="C13">
+        <v>14614040</v>
+      </c>
+      <c r="D13">
+        <v>12506460</v>
+      </c>
+      <c r="E13">
+        <v>370000</v>
+      </c>
+      <c r="F13">
+        <v>470000</v>
+      </c>
+      <c r="G13">
+        <v>5500</v>
+      </c>
+      <c r="H13">
+        <v>2040500</v>
+      </c>
+      <c r="I13">
+        <v>548200</v>
+      </c>
+      <c r="J13">
+        <v>3858850</v>
+      </c>
+      <c r="K13">
+        <v>8647610</v>
+      </c>
+      <c r="L13">
+        <v>8647610</v>
+      </c>
+      <c r="M13">
+        <v>8647610</v>
+      </c>
+      <c r="N13">
+        <v>8647610</v>
+      </c>
+      <c r="O13">
+        <v>-919200</v>
+      </c>
+      <c r="P13">
+        <v>-919200</v>
+      </c>
+      <c r="Q13">
+        <v>7728410</v>
+      </c>
+      <c r="R13">
+        <v>17351590</v>
+      </c>
+      <c r="S13">
+        <v>17351590</v>
+      </c>
+      <c r="T13">
+        <v>424650</v>
+      </c>
+      <c r="U13">
+        <v>10630850</v>
+      </c>
+      <c r="V13">
+        <v>3208190</v>
+      </c>
+      <c r="W13">
+        <v>775000</v>
+      </c>
+      <c r="X13">
+        <v>0.4611441529470327</v>
+      </c>
+      <c r="Y13">
+        <v>0.12</v>
+      </c>
+      <c r="Z13">
+        <v>0.39</v>
+      </c>
+      <c r="AA13">
+        <v>0.03</v>
+      </c>
+      <c r="AB13">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B14">
+        <v>21610750</v>
+      </c>
+      <c r="C14">
+        <v>10769075</v>
+      </c>
+      <c r="D14">
+        <v>10841675</v>
+      </c>
+      <c r="E14">
+        <v>390000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>1834000</v>
+      </c>
+      <c r="I14">
+        <v>155350</v>
+      </c>
+      <c r="J14">
+        <v>2637700</v>
+      </c>
+      <c r="K14">
+        <v>8203975</v>
+      </c>
+      <c r="L14">
+        <v>8203975</v>
+      </c>
+      <c r="M14">
+        <v>8203975</v>
+      </c>
+      <c r="N14">
+        <v>8203975</v>
+      </c>
+      <c r="O14">
+        <v>-1616300</v>
+      </c>
+      <c r="P14">
+        <v>-1616300</v>
+      </c>
+      <c r="Q14">
+        <v>6587675</v>
+      </c>
+      <c r="R14">
+        <v>13189075</v>
+      </c>
+      <c r="S14">
+        <v>13189075</v>
+      </c>
+      <c r="T14">
+        <v>257350</v>
+      </c>
+      <c r="U14">
+        <v>7169850</v>
+      </c>
+      <c r="V14">
+        <v>2979225</v>
+      </c>
+      <c r="W14">
+        <v>620000</v>
+      </c>
+      <c r="X14">
+        <v>0.5016797195840034</v>
+      </c>
+      <c r="Y14">
+        <v>0.14</v>
+      </c>
+      <c r="Z14">
+        <v>0.33</v>
+      </c>
+      <c r="AA14">
+        <v>0.03</v>
+      </c>
+      <c r="AB14">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
